--- a/Contabilidade.xlsx
+++ b/Contabilidade.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyss\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE678283-F0F3-45C6-854B-F38D0DE9A9BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62145EE-BD59-48B3-B9CE-4AEA3AB886A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{6BC3C9F1-1E25-4D23-957E-095CCE0454A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6BC3C9F1-1E25-4D23-957E-095CCE0454A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>31/2022</t>
   </si>
@@ -36,33 +36,6 @@
     <t>31/2020</t>
   </si>
   <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>AC/PC</t>
-  </si>
-  <si>
-    <t>(PC/(PC+PNC)*)100</t>
-  </si>
-  <si>
-    <t>(AC+RLP)/(PC+PNC)</t>
-  </si>
-  <si>
-    <t>(AC-Estoque)/PC</t>
-  </si>
-  <si>
-    <t>(PC+PNC)/Ativo</t>
-  </si>
-  <si>
-    <t>(LL/Receita Liquida)*100</t>
-  </si>
-  <si>
-    <t>(LL/Ativo)*100</t>
-  </si>
-  <si>
-    <t>Caixa e Equivalente de Caixa/PC=</t>
-  </si>
-  <si>
     <t>0.44</t>
   </si>
   <si>
@@ -85,6 +58,78 @@
   </si>
   <si>
     <t>2.29%</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>23.12%</t>
+  </si>
+  <si>
+    <t>26.73%</t>
+  </si>
+  <si>
+    <t>59.95%</t>
+  </si>
+  <si>
+    <t>62.69%</t>
+  </si>
+  <si>
+    <t>23.69%</t>
+  </si>
+  <si>
+    <t>29.47%</t>
+  </si>
+  <si>
+    <t>11.02%</t>
+  </si>
+  <si>
+    <t>19.35%</t>
+  </si>
+  <si>
+    <t>Rentabilidade</t>
+  </si>
+  <si>
+    <t>Margem Líquida</t>
+  </si>
+  <si>
+    <t>PCT</t>
+  </si>
+  <si>
+    <t>Composição do Endividamento</t>
+  </si>
+  <si>
+    <t>Líquidez Geral</t>
+  </si>
+  <si>
+    <t>Líquidez Seca</t>
+  </si>
+  <si>
+    <t>Líquidez Corrente</t>
+  </si>
+  <si>
+    <t>Líquidez Imediata</t>
+  </si>
+  <si>
+    <t>Ano</t>
   </si>
 </sst>
 </file>
@@ -438,9 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF037349-5E3D-476B-A76D-DDCF9FB62844}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -449,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -463,66 +506,114 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
